--- a/projectPython/Pandas_Excel_Data/src/rov_group.xlsx
+++ b/projectPython/Pandas_Excel_Data/src/rov_group.xlsx
@@ -453,7 +453,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>โรงเรียนกำแพงเพชรพิทยาคม</t>
+          <t>โรงเรียนขาณุวิทยา</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -463,41 +463,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RUBZ</t>
+          <t>KW E-sports</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>โรงเรียนคีรีมาศพิทยาคม</t>
+          <t>โรงเรียนชุมแสงสงคราม"อุดรคณารักษ์อุปถัมภ์"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>สุโขทัย</t>
+          <t>พิษณุโลก</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Black Diamond</t>
+          <t>CHSK</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>โรงเรียนชุมแสงสงคราม"อุดรคณารักษ์อุปถัมภ์"</t>
+          <t>โรงเรียนตะพานหิน</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>พิษณุโลก</t>
+          <t>พิจิตร</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ชส.ล่าท้าฝัน</t>
+          <t>TP NEW GEN</t>
         </is>
       </c>
     </row>
@@ -514,41 +514,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ravens</t>
+          <t>Black Dragon</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>โรงเรียนบ้านราษฏร์อุปถัมภ์</t>
+          <t>โรงเรียนบ้านเข็กน้อย</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>นครสวรรค์</t>
+          <t>เพชรบูรณ์</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>คนเก่ง</t>
+          <t>บ้านเข็กน้อย</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>โรงเรียนบ้านโคกวิทยาคม</t>
+          <t>โรงเรียนบ้านโนนจั่น</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>อุตรดิตถ์</t>
+          <t>กำแพงเพชร</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BKW</t>
+          <t>NONJUN E-SPORTS</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>สนั่น01</t>
+          <t>ดังสนั่น02</t>
         </is>
       </c>
     </row>
@@ -582,41 +582,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Active Esport ( ATP)</t>
+          <t>เเมงดู๋(Mud)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>โรงเรียนผดุงวิทย์</t>
+          <t>โรงเรียนพระหฤทัยสวรรคโลก</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>เพชรบูรณ์</t>
+          <t>สุโขทัย</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PDV.E-SPORT</t>
+          <t>โรงเรียนพระหฤทัยสวรรคโลก</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>โรงเรียนพระหฤทัยสวรรคโลก</t>
+          <t>โรงเรียนพรานกระต่ายพิทยาคม</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>สุโขทัย</t>
+          <t>กำแพงเพชร</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ชุมนุมE-Sportโรงเรียนพระหฤทัยสวรรคโลก</t>
+          <t>อยู่ในใจเสมอ</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Upgrade Asto Toilet Titan Cameraman</t>
+          <t>TeeNoi</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Caelus</t>
+          <t>Actin</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>รวงข้าวสตูดิโอ1</t>
+          <t>รวงข้าว Studio2</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ENAZUMA ELEVEN GO</t>
+          <t>มั่วหลาย Fc</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>กล้วยไข่หวาน</t>
+          <t>ไข่เค็ม</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LyZa JT</t>
+          <t>Pink dolphin</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>T-SIX E-Sport</t>
+          <t>T-SIX Academy</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SP-01</t>
+          <t>SP-02</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SNS-Family</t>
+          <t>SNS-Devilish</t>
         </is>
       </c>
     </row>
@@ -786,24 +786,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SAPPHA Academy</t>
+          <t>ปังเมล่อน</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>โรงเรียนสรรเพชญอัฏฐมาพิทยาคม</t>
+          <t>โรงเรียนสวรรค์อนันต์วิทยา</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>พิจิตร</t>
+          <t>สุโขทัย</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SP.Esports</t>
+          <t>SLIKK'S STING</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Demon Maisie</t>
+          <t>Lenwow</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SMC.</t>
+          <t>แพ้แล้วนอนไม่หลับ</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KHTP Esports1</t>
+          <t>KHTP Esports2</t>
         </is>
       </c>
     </row>
@@ -871,41 +871,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Next Go!!!</t>
+          <t>The GenX</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>โรงเรียนเซนต์นิโกลาส</t>
+          <t>โรงเรียนเตรียมอุดมศึกษาน้อมเกล้า</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>พิษณุโลก</t>
+          <t>อุตรดิตถ์</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ไม่ซ้อมพร้อมแข่ง</t>
+          <t>อุตรดิตถ์ แรมโบ้</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>โรงเรียนเตรียมอุดมศึกษาน้อมเกล้า</t>
+          <t>โรงเรียนเทศบาลบ้านปากทาง</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>อุตรดิตถ์</t>
+          <t>พิจิตร</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>อุตรดิตถ์ The kraken</t>
+          <t>โรงเรียนเทศบาลบ้านปากทาง</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Trash_Seven</t>
+          <t>Call me baby</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ซอยโลโซ</t>
+          <t>มะนาวก๊อต</t>
         </is>
       </c>
     </row>
@@ -956,31 +956,31 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AtomicX</t>
+          <t>YOLO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>โรงเรียนเรืองวิทย์พิทยาคม</t>
+          <t>โรงเรียนโพฒิสารศึกษา</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>กำแพงเพชร</t>
+          <t>นครสวรรค์</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sevenparaodent</t>
+          <t>Luky PS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>โรงเรียนโพฒิสารศึกษา</t>
+          <t>โรเรียนกีฬาเทศบาลนครนครสวรรค์</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -990,66 +990,82 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PS-Esport</t>
-        </is>
-      </c>
-    </row>
-    <row r="35"/>
+          <t>T9_Badboys</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+    </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>โรงเรียน</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>จังหวัด</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ทีม</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>โรงเรียน</t>
+          <t>โรงเรียนกำแพงเพชรพิทยาคม</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>จังหวัด</t>
+          <t>กำแพงเพชร</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ทีม</t>
+          <t>RUBZ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>โรงเรียนชุมแสงสงคราม"อุดรคณารักษ์อุปถัมภ์"</t>
+          <t>โรงเรียนคีรีมาศพิทยาคม</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>พิษณุโลก</t>
+          <t>สุโขทัย</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CHSK</t>
+          <t>Black Diamond</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>โรงเรียนตะพานหิน</t>
+          <t>โรงเรียนชุมแสงสงคราม"อุดรคณารักษ์อุปถัมภ์"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>พิจิตร</t>
+          <t>พิษณุโลก</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TP NEW GEN</t>
+          <t>ชส.ล่าท้าฝัน</t>
         </is>
       </c>
     </row>
@@ -1066,41 +1082,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Black Dragon</t>
+          <t>Ravens</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>โรงเรียนบ้านเข็กน้อย</t>
+          <t>โรงเรียนบ้านราษฏร์อุปถัมภ์</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>เพชรบูรณ์</t>
+          <t>นครสวรรค์</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>บ้านเข็กน้อย</t>
+          <t>คนเก่ง</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>โรงเรียนบ้านโนนจั่น</t>
+          <t>โรงเรียนบ้านโคกวิทยาคม</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>กำแพงเพชร</t>
+          <t>อุตรดิตถ์</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NONJUN E-SPORTS</t>
+          <t>BKW</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1133,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ดังสนั่น02</t>
+          <t>สนั่น01</t>
         </is>
       </c>
     </row>
@@ -1134,41 +1150,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>เเมงดู๋(Mud)</t>
+          <t>Active Esport ( ATP)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>โรงเรียนพระหฤทัยสวรรคโลก</t>
+          <t>โรงเรียนผดุงวิทย์</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>สุโขทัย</t>
+          <t>เพชรบูรณ์</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>โรงเรียนพระหฤทัยสวรรคโลก</t>
+          <t>PDV.E-SPORT</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>โรงเรียนพรานกระต่ายพิทยาคม</t>
+          <t>โรงเรียนพระหฤทัยสวรรคโลก</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>กำแพงเพชร</t>
+          <t>สุโขทัย</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>อยู่ในใจเสมอ</t>
+          <t>ชุมนุมE-Sportโรงเรียนพระหฤทัยสวรรคโลก</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1201,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TeeNoi</t>
+          <t>Upgrade Asto Toilet Titan Cameraman</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1218,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Actin</t>
+          <t>Caelus</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1235,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>รวงข้าว Studio2</t>
+          <t>รวงข้าวสตูดิโอ1</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1252,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>มั่วหลาย Fc</t>
+          <t>ENAZUMA ELEVEN GO</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1269,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ไข่เค็ม</t>
+          <t>กล้วยไข่หวาน</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1286,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pink dolphin</t>
+          <t>LyZa JT</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1303,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>T-SIX Academy</t>
+          <t>T-SIX E-Sport</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1320,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SP-02</t>
+          <t>SP-01</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1337,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SNS-Devilish</t>
+          <t>SNS-Family</t>
         </is>
       </c>
     </row>
@@ -1338,24 +1354,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ปังเมล่อน</t>
+          <t>SAPPHA Academy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>โรงเรียนสวรรค์อนันต์วิทยา</t>
+          <t>โรงเรียนสรรเพชญอัฏฐมาพิทยาคม</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>สุโขทัย</t>
+          <t>พิจิตร</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SLIKK'S STING</t>
+          <t>SP.Esports</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1388,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lenwow</t>
+          <t>Demon Maisie</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1405,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>แพ้แล้วนอนไม่หลับ</t>
+          <t>SMC.</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1422,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>KHTP Esports2</t>
+          <t>KHTP Esports1</t>
         </is>
       </c>
     </row>
@@ -1423,41 +1439,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>The GenX</t>
+          <t>Next Go!!!</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>โรงเรียนเตรียมอุดมศึกษาน้อมเกล้า</t>
+          <t>โรงเรียนเซนต์นิโกลาส</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>อุตรดิตถ์</t>
+          <t>พิษณุโลก</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>อุตรดิตถ์ แรมโบ้</t>
+          <t>ไม่ซ้อมพร้อมแข่ง</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>โรงเรียนเทศบาลบ้านปากทาง</t>
+          <t>โรงเรียนเตรียมอุดมศึกษาน้อมเกล้า</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>พิจิตร</t>
+          <t>อุตรดิตถ์</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>โรงเรียนเทศบาลบ้านปากทาง</t>
+          <t>อุตรดิตถ์ The kraken</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1490,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Call me baby</t>
+          <t>Trash_Seven</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1507,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>มะนาวก๊อต</t>
+          <t>ซอยโลโซ</t>
         </is>
       </c>
     </row>
@@ -1508,31 +1524,31 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>YOLO</t>
+          <t>AtomicX</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>โรงเรียนโพฒิสารศึกษา</t>
+          <t>โรงเรียนเรืองวิทย์พิทยาคม</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>นครสวรรค์</t>
+          <t>กำแพงเพชร</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Luky PS</t>
+          <t>Sevenparaodent</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>โรเรียนกีฬาเทศบาลนครนครสวรรค์</t>
+          <t>โรงเรียนโพฒิสารศึกษา</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1542,7 +1558,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>T9_Badboys</t>
+          <t>PS-Esport</t>
         </is>
       </c>
     </row>
